--- a/testData/Book1.xlsx
+++ b/testData/Book1.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2125" uniqueCount="180">
   <si>
     <t>Year</t>
   </si>
@@ -196,6 +196,387 @@
   </si>
   <si>
     <t>homeInsurance</t>
+  </si>
+  <si>
+    <t>₹ 1,55,646</t>
+  </si>
+  <si>
+    <t>₹ 1,14,624</t>
+  </si>
+  <si>
+    <t>₹ 34,500</t>
+  </si>
+  <si>
+    <t>₹ 3,04,770</t>
+  </si>
+  <si>
+    <t>₹ 10,59,354</t>
+  </si>
+  <si>
+    <t>12.81%</t>
+  </si>
+  <si>
+    <t>₹ 2,08,418</t>
+  </si>
+  <si>
+    <t>₹ 1,15,907</t>
+  </si>
+  <si>
+    <t>₹ 8,50,936</t>
+  </si>
+  <si>
+    <t>29.96%</t>
+  </si>
+  <si>
+    <t>₹ 2,34,850</t>
+  </si>
+  <si>
+    <t>₹ 89,474</t>
+  </si>
+  <si>
+    <t>₹ 6,16,086</t>
+  </si>
+  <si>
+    <t>49.29%</t>
+  </si>
+  <si>
+    <t>₹ 2,64,635</t>
+  </si>
+  <si>
+    <t>₹ 59,689</t>
+  </si>
+  <si>
+    <t>₹ 3,51,451</t>
+  </si>
+  <si>
+    <t>71.07%</t>
+  </si>
+  <si>
+    <t>₹ 2,98,197</t>
+  </si>
+  <si>
+    <t>₹ 26,127</t>
+  </si>
+  <si>
+    <t>₹ 53,254</t>
+  </si>
+  <si>
+    <t>95.62%</t>
+  </si>
+  <si>
+    <t>₹ 800</t>
+  </si>
+  <si>
+    <t>₹ 6,900</t>
+  </si>
+  <si>
+    <t>₹ 60,954</t>
+  </si>
+  <si>
+    <t>₹ 18,586</t>
+  </si>
+  <si>
+    <t>₹ 89,381</t>
+  </si>
+  <si>
+    <t>₹ 30,000</t>
+  </si>
+  <si>
+    <t>₹ 1,37,967</t>
+  </si>
+  <si>
+    <t>₹ 11,81,414</t>
+  </si>
+  <si>
+    <t>1.55%</t>
+  </si>
+  <si>
+    <t>₹ 24,216</t>
+  </si>
+  <si>
+    <t>₹ 1,05,345</t>
+  </si>
+  <si>
+    <t>₹ 36,000</t>
+  </si>
+  <si>
+    <t>₹ 1,65,561</t>
+  </si>
+  <si>
+    <t>₹ 11,57,198</t>
+  </si>
+  <si>
+    <t>3.57%</t>
+  </si>
+  <si>
+    <t>₹ 26,488</t>
+  </si>
+  <si>
+    <t>₹ 1,03,073</t>
+  </si>
+  <si>
+    <t>₹ 11,30,711</t>
+  </si>
+  <si>
+    <t>5.77%</t>
+  </si>
+  <si>
+    <t>₹ 28,972</t>
+  </si>
+  <si>
+    <t>₹ 1,00,588</t>
+  </si>
+  <si>
+    <t>₹ 11,01,738</t>
+  </si>
+  <si>
+    <t>8.19%</t>
+  </si>
+  <si>
+    <t>₹ 31,690</t>
+  </si>
+  <si>
+    <t>₹ 97,870</t>
+  </si>
+  <si>
+    <t>₹ 10,70,048</t>
+  </si>
+  <si>
+    <t>10.83%</t>
+  </si>
+  <si>
+    <t>₹ 34,663</t>
+  </si>
+  <si>
+    <t>₹ 94,898</t>
+  </si>
+  <si>
+    <t>₹ 10,35,385</t>
+  </si>
+  <si>
+    <t>13.72%</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>₹ 37,915</t>
+  </si>
+  <si>
+    <t>₹ 91,646</t>
+  </si>
+  <si>
+    <t>₹ 9,97,471</t>
+  </si>
+  <si>
+    <t>16.88%</t>
+  </si>
+  <si>
+    <t>2031</t>
+  </si>
+  <si>
+    <t>₹ 41,471</t>
+  </si>
+  <si>
+    <t>₹ 88,089</t>
+  </si>
+  <si>
+    <t>₹ 9,55,999</t>
+  </si>
+  <si>
+    <t>20.33%</t>
+  </si>
+  <si>
+    <t>2032</t>
+  </si>
+  <si>
+    <t>₹ 45,361</t>
+  </si>
+  <si>
+    <t>₹ 84,199</t>
+  </si>
+  <si>
+    <t>₹ 9,10,638</t>
+  </si>
+  <si>
+    <t>24.11%</t>
+  </si>
+  <si>
+    <t>2033</t>
+  </si>
+  <si>
+    <t>₹ 49,617</t>
+  </si>
+  <si>
+    <t>₹ 79,944</t>
+  </si>
+  <si>
+    <t>₹ 8,61,021</t>
+  </si>
+  <si>
+    <t>28.25%</t>
+  </si>
+  <si>
+    <t>2034</t>
+  </si>
+  <si>
+    <t>₹ 54,271</t>
+  </si>
+  <si>
+    <t>₹ 75,289</t>
+  </si>
+  <si>
+    <t>₹ 8,06,750</t>
+  </si>
+  <si>
+    <t>32.77%</t>
+  </si>
+  <si>
+    <t>2035</t>
+  </si>
+  <si>
+    <t>₹ 59,362</t>
+  </si>
+  <si>
+    <t>₹ 70,198</t>
+  </si>
+  <si>
+    <t>₹ 7,47,388</t>
+  </si>
+  <si>
+    <t>37.72%</t>
+  </si>
+  <si>
+    <t>2036</t>
+  </si>
+  <si>
+    <t>₹ 64,931</t>
+  </si>
+  <si>
+    <t>₹ 64,630</t>
+  </si>
+  <si>
+    <t>₹ 6,82,458</t>
+  </si>
+  <si>
+    <t>43.13%</t>
+  </si>
+  <si>
+    <t>2037</t>
+  </si>
+  <si>
+    <t>₹ 71,022</t>
+  </si>
+  <si>
+    <t>₹ 58,539</t>
+  </si>
+  <si>
+    <t>₹ 6,11,436</t>
+  </si>
+  <si>
+    <t>49.05%</t>
+  </si>
+  <si>
+    <t>2038</t>
+  </si>
+  <si>
+    <t>₹ 77,684</t>
+  </si>
+  <si>
+    <t>₹ 51,877</t>
+  </si>
+  <si>
+    <t>₹ 5,33,752</t>
+  </si>
+  <si>
+    <t>55.52%</t>
+  </si>
+  <si>
+    <t>2039</t>
+  </si>
+  <si>
+    <t>₹ 84,971</t>
+  </si>
+  <si>
+    <t>₹ 44,589</t>
+  </si>
+  <si>
+    <t>₹ 4,48,781</t>
+  </si>
+  <si>
+    <t>62.6%</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>₹ 92,942</t>
+  </si>
+  <si>
+    <t>₹ 36,618</t>
+  </si>
+  <si>
+    <t>₹ 3,55,839</t>
+  </si>
+  <si>
+    <t>70.35%</t>
+  </si>
+  <si>
+    <t>2041</t>
+  </si>
+  <si>
+    <t>₹ 1,01,661</t>
+  </si>
+  <si>
+    <t>₹ 27,900</t>
+  </si>
+  <si>
+    <t>₹ 2,54,178</t>
+  </si>
+  <si>
+    <t>78.82%</t>
+  </si>
+  <si>
+    <t>2042</t>
+  </si>
+  <si>
+    <t>₹ 1,11,197</t>
+  </si>
+  <si>
+    <t>₹ 18,363</t>
+  </si>
+  <si>
+    <t>₹ 1,42,981</t>
+  </si>
+  <si>
+    <t>88.08%</t>
+  </si>
+  <si>
+    <t>2043</t>
+  </si>
+  <si>
+    <t>₹ 1,21,628</t>
+  </si>
+  <si>
+    <t>₹ 7,932</t>
+  </si>
+  <si>
+    <t>₹ 21,353</t>
+  </si>
+  <si>
+    <t>98.22%</t>
+  </si>
+  <si>
+    <t>2044</t>
+  </si>
+  <si>
+    <t>₹ 241</t>
+  </si>
+  <si>
+    <t>₹ 6,000</t>
+  </si>
+  <si>
+    <t>₹ 27,593</t>
   </si>
 </sst>
 </file>
@@ -548,7 +929,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FFF355A-99A1-43A8-AFD1-CDB5C7DD3F97}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
@@ -588,22 +969,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -611,10 +992,10 @@
         <v>14</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>17</v>
@@ -623,10 +1004,10 @@
         <v>18</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>20</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -634,10 +1015,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D7" t="s" s="0">
         <v>17</v>
@@ -646,10 +1027,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -657,10 +1038,10 @@
         <v>26</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>17</v>
@@ -669,10 +1050,10 @@
         <v>18</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -680,10 +1061,10 @@
         <v>31</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s" s="0">
         <v>17</v>
@@ -692,10 +1073,10 @@
         <v>18</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>35</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -703,21 +1084,366 @@
         <v>36</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s" s="0">
         <v>40</v>
       </c>
       <c r="G13" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="F33" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="G33" t="s" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="G35" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="F37" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="G37" t="s" s="0">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="F39" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="G41" t="s" s="0">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="F43" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G43" t="s" s="0">
         <v>41</v>
       </c>
     </row>
